--- a/data/parsed/elec/Country_data_CHE.xlsx
+++ b/data/parsed/elec/Country_data_CHE.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/parsed/elec/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46410C02-AAD8-BB49-B890-F4C06651B140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -73,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -137,6 +143,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +229,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +281,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,30 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D421"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1990</v>
@@ -456,89 +505,89 @@
         <v>24.907</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>1991</v>
       </c>
       <c r="C3">
-        <v>26.801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+        <v>26.800999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>1992</v>
       </c>
       <c r="C4">
-        <v>26.046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+        <v>26.045999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>1993</v>
       </c>
       <c r="C5">
-        <v>31.053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
+        <v>31.053000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>1994</v>
       </c>
       <c r="C6">
-        <v>34.566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
+        <v>34.566000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>1995</v>
       </c>
       <c r="C7">
-        <v>36.219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
+        <v>36.219000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>1996</v>
       </c>
       <c r="C8">
-        <v>34.431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
+        <v>34.430999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>1997</v>
       </c>
       <c r="C9">
-        <v>37.409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
+        <v>37.408999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>1998</v>
       </c>
       <c r="C10">
-        <v>43.373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
+        <v>43.372999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1">
         <v>1999</v>
       </c>
       <c r="C11">
-        <v>47.293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
+        <v>47.292999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>2000</v>
       </c>
@@ -546,8 +595,8 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>2001</v>
       </c>
@@ -555,8 +604,8 @@
         <v>34.54</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>2002</v>
       </c>
@@ -564,17 +613,17 @@
         <v>32.308</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>2003</v>
       </c>
       <c r="C15">
-        <v>33.196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
+        <v>33.195999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>2004</v>
       </c>
@@ -582,17 +631,17 @@
         <v>27.759</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1">
         <v>2005</v>
       </c>
       <c r="C17">
-        <v>31.996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
+        <v>31.995999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>2006</v>
       </c>
@@ -600,35 +649,35 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>2007</v>
       </c>
       <c r="C19">
-        <v>36.88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
+        <v>36.880000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>2008</v>
       </c>
       <c r="C20">
-        <v>32.736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
+        <v>32.735999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="1">
         <v>2009</v>
       </c>
       <c r="C21">
-        <v>33.525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
+        <v>33.524999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="1">
         <v>2010</v>
       </c>
@@ -636,136 +685,136 @@
         <v>32.881</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>2011</v>
       </c>
       <c r="C23">
-        <v>32.237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
+        <v>32.237000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="1">
         <v>2012</v>
       </c>
       <c r="C24">
-        <v>33.749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
+        <v>33.749000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="1">
         <v>2013</v>
       </c>
       <c r="C25">
-        <v>32.27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
+        <v>32.270000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>2014</v>
       </c>
       <c r="C26">
-        <v>34.021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
+        <v>34.021000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="1">
         <v>2015</v>
       </c>
       <c r="C27">
-        <v>35.068</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
+        <v>35.067999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>2016</v>
       </c>
       <c r="C28">
-        <v>30.173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
+        <v>30.172999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>2017</v>
       </c>
       <c r="C29">
-        <v>30.946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
+        <v>30.946000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="B30" s="1">
         <v>2018</v>
       </c>
       <c r="C30">
-        <v>32.607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
+        <v>32.606999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="B31" s="1">
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>35.765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>35.765000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B32" s="1">
         <v>1990</v>
       </c>
       <c r="C32">
-        <v>22.799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
+        <v>22.798999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
       <c r="B33" s="1">
         <v>1991</v>
       </c>
       <c r="C33">
-        <v>24.005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1"/>
+        <v>24.004999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
       <c r="B34" s="1">
         <v>1992</v>
       </c>
       <c r="C34">
-        <v>21.757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
+        <v>21.757000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>1993</v>
       </c>
       <c r="C35">
-        <v>23.854</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
+        <v>23.853999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="1">
         <v>1994</v>
       </c>
       <c r="C36">
-        <v>22.723</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1"/>
+        <v>22.722999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="1">
         <v>1995</v>
       </c>
@@ -773,35 +822,35 @@
         <v>28.948</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
       <c r="B38" s="1">
         <v>1996</v>
       </c>
       <c r="C38">
-        <v>33.485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
+        <v>33.484999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
       <c r="B39" s="1">
         <v>1997</v>
       </c>
       <c r="C39">
-        <v>30.655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
+        <v>30.655000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
       <c r="B40" s="1">
         <v>1998</v>
       </c>
       <c r="C40">
-        <v>37.419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
+        <v>37.418999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
       <c r="B41" s="1">
         <v>1999</v>
       </c>
@@ -809,8 +858,8 @@
         <v>37.064</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
       <c r="B42" s="1">
         <v>2000</v>
       </c>
@@ -818,8 +867,8 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="1">
         <v>2001</v>
       </c>
@@ -827,8 +876,8 @@
         <v>24.096</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
       <c r="B44" s="1">
         <v>2002</v>
       </c>
@@ -836,8 +885,8 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
       <c r="B45" s="1">
         <v>2003</v>
       </c>
@@ -845,98 +894,98 @@
         <v>30.084</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
       <c r="B46" s="1">
         <v>2004</v>
       </c>
       <c r="C46">
-        <v>27.056</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1"/>
+        <v>27.056000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
       <c r="B47" s="1">
         <v>2005</v>
       </c>
       <c r="C47">
-        <v>38.346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
+        <v>38.345999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
       <c r="B48" s="1">
         <v>2006</v>
       </c>
       <c r="C48">
-        <v>33.803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1"/>
+        <v>33.802999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
       <c r="B49" s="1">
         <v>2007</v>
       </c>
       <c r="C49">
-        <v>34.818</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
+        <v>34.817999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
       <c r="B50" s="1">
         <v>2008</v>
       </c>
       <c r="C50">
-        <v>31.601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
+        <v>31.600999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
       <c r="B51" s="1">
         <v>2009</v>
       </c>
       <c r="C51">
-        <v>31.368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
+        <v>31.367999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
       <c r="B52" s="1">
         <v>2010</v>
       </c>
       <c r="C52">
-        <v>33.401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1"/>
+        <v>33.401000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
       <c r="B53" s="1">
         <v>2011</v>
       </c>
       <c r="C53">
-        <v>34.824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1"/>
+        <v>34.823999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
       <c r="B54" s="1">
         <v>2012</v>
       </c>
       <c r="C54">
-        <v>31.549</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1"/>
+        <v>31.548999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
       <c r="B55" s="1">
         <v>2013</v>
       </c>
       <c r="C55">
-        <v>29.874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1"/>
+        <v>29.873999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
       <c r="B56" s="1">
         <v>2014</v>
       </c>
@@ -944,35 +993,35 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
       <c r="B57" s="1">
         <v>2015</v>
       </c>
       <c r="C57">
-        <v>34.033</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
+        <v>34.033000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
       <c r="B58" s="1">
         <v>2016</v>
       </c>
       <c r="C58">
-        <v>34.096</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1"/>
+        <v>34.095999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
       <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59">
-        <v>36.496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1"/>
+        <v>36.496000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
       <c r="B60" s="1">
         <v>2018</v>
       </c>
@@ -980,18 +1029,18 @@
         <v>31.02</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
       <c r="B61" s="1">
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>29.505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>29.504999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B62" s="1">
         <v>1990</v>
@@ -1000,89 +1049,89 @@
         <v>2.5608</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
       <c r="B63" s="1">
         <v>1991</v>
       </c>
       <c r="C63">
-        <v>2.5965</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
+        <v>2.5964999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
       <c r="B64" s="1">
         <v>1992</v>
       </c>
       <c r="C64">
-        <v>2.5437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
+        <v>2.5436999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
       <c r="B65" s="1">
         <v>1993</v>
       </c>
       <c r="C65">
-        <v>2.5689</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1"/>
+        <v>2.5689000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
       <c r="B66" s="1">
         <v>1994</v>
       </c>
       <c r="C66">
-        <v>2.523</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
+        <v>2.5230000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
       <c r="B67" s="1">
         <v>1995</v>
       </c>
       <c r="C67">
-        <v>2.5902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1"/>
+        <v>2.5901999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
       <c r="B68" s="1">
         <v>1996</v>
       </c>
       <c r="C68">
-        <v>2.5356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1"/>
+        <v>2.5356000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
       <c r="B69" s="1">
         <v>1997</v>
       </c>
       <c r="C69">
-        <v>2.5731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1"/>
+        <v>2.5731000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
       <c r="B70" s="1">
         <v>1998</v>
       </c>
       <c r="C70">
-        <v>2.6379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1"/>
+        <v>2.6379000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
       <c r="B71" s="1">
         <v>1999</v>
       </c>
       <c r="C71">
-        <v>2.7297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1"/>
+        <v>2.7296999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
       <c r="B72" s="1">
         <v>2000</v>
       </c>
@@ -1090,8 +1139,8 @@
         <v>2.7081</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
       <c r="B73" s="1">
         <v>2001</v>
       </c>
@@ -1099,44 +1148,44 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
       <c r="B74" s="1">
         <v>2002</v>
       </c>
       <c r="C74">
-        <v>2.8803</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1"/>
+        <v>2.8803000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
       <c r="B75" s="1">
         <v>2003</v>
       </c>
       <c r="C75">
-        <v>2.8776</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1"/>
+        <v>2.8776000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
       <c r="B76" s="1">
         <v>2004</v>
       </c>
       <c r="C76">
-        <v>2.8968</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1"/>
+        <v>2.8967999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
       <c r="B77" s="1">
         <v>2005</v>
       </c>
       <c r="C77">
-        <v>2.9349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1"/>
+        <v>2.9348999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
       <c r="B78" s="1">
         <v>2006</v>
       </c>
@@ -1144,26 +1193,26 @@
         <v>3.0543</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
       <c r="B79" s="1">
         <v>2007</v>
       </c>
       <c r="C79">
-        <v>3.0135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1"/>
+        <v>3.0135000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
       <c r="B80" s="1">
         <v>2008</v>
       </c>
       <c r="C80">
-        <v>3.098</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1"/>
+        <v>3.0979999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
       <c r="B81" s="1">
         <v>2009</v>
       </c>
@@ -1171,8 +1220,8 @@
         <v>3.016</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
       <c r="B82" s="1">
         <v>2010</v>
       </c>
@@ -1180,17 +1229,17 @@
         <v>3.258</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
       <c r="B83" s="1">
         <v>2011</v>
       </c>
       <c r="C83">
-        <v>2.865</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1"/>
+        <v>2.8650000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
       <c r="B84" s="1">
         <v>2012</v>
       </c>
@@ -1198,17 +1247,17 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1"/>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
       <c r="B85" s="1">
         <v>2013</v>
       </c>
       <c r="C85">
-        <v>2.453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1"/>
+        <v>2.4529999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" s="1">
         <v>2014</v>
       </c>
@@ -1216,8 +1265,8 @@
         <v>2.843</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
       <c r="B87" s="1">
         <v>2015</v>
       </c>
@@ -1225,35 +1274,35 @@
         <v>2.843</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
       <c r="B88" s="1">
         <v>2016</v>
       </c>
       <c r="C88">
-        <v>4.357</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1"/>
+        <v>4.3570000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
       <c r="B89" s="1">
         <v>2017</v>
       </c>
       <c r="C89">
-        <v>4.197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1"/>
+        <v>4.1970000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
       <c r="B90" s="1">
         <v>2018</v>
       </c>
       <c r="C90">
-        <v>4.252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1"/>
+        <v>4.2519999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
       <c r="B91" s="1">
         <v>2019</v>
       </c>
@@ -1261,9 +1310,9 @@
         <v>3.722</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>7</v>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B92" s="1">
         <v>1990</v>
@@ -1272,8 +1321,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1"/>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
       <c r="B93" s="1">
         <v>1991</v>
       </c>
@@ -1281,8 +1330,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1"/>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
       <c r="B94" s="1">
         <v>1992</v>
       </c>
@@ -1290,8 +1339,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
       <c r="B95" s="1">
         <v>1993</v>
       </c>
@@ -1299,8 +1348,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
       <c r="B96" s="1">
         <v>1994</v>
       </c>
@@ -1308,8 +1357,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
       <c r="B97" s="1">
         <v>1995</v>
       </c>
@@ -1317,8 +1366,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
       <c r="B98" s="1">
         <v>1996</v>
       </c>
@@ -1326,8 +1375,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1"/>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
       <c r="B99" s="1">
         <v>1997</v>
       </c>
@@ -1335,8 +1384,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1"/>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
       <c r="B100" s="1">
         <v>1998</v>
       </c>
@@ -1344,8 +1393,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
       <c r="B101" s="1">
         <v>1999</v>
       </c>
@@ -1353,8 +1402,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
       <c r="B102" s="1">
         <v>2000</v>
       </c>
@@ -1362,8 +1411,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
       <c r="B103" s="1">
         <v>2001</v>
       </c>
@@ -1371,8 +1420,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
       <c r="B104" s="1">
         <v>2002</v>
       </c>
@@ -1380,8 +1429,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1"/>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
       <c r="B105" s="1">
         <v>2003</v>
       </c>
@@ -1389,8 +1438,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1"/>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
       <c r="B106" s="1">
         <v>2004</v>
       </c>
@@ -1398,8 +1447,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1"/>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
       <c r="B107" s="1">
         <v>2005</v>
       </c>
@@ -1407,8 +1456,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1"/>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
       <c r="B108" s="1">
         <v>2006</v>
       </c>
@@ -1416,8 +1465,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1"/>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
       <c r="B109" s="1">
         <v>2007</v>
       </c>
@@ -1425,8 +1474,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1"/>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
       <c r="B110" s="1">
         <v>2008</v>
       </c>
@@ -1434,8 +1483,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
       <c r="B111" s="1">
         <v>2009</v>
       </c>
@@ -1443,8 +1492,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1"/>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
       <c r="B112" s="1">
         <v>2010</v>
       </c>
@@ -1452,8 +1501,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1"/>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
       <c r="B113" s="1">
         <v>2011</v>
       </c>
@@ -1461,8 +1510,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1"/>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
       <c r="B114" s="1">
         <v>2012</v>
       </c>
@@ -1470,8 +1519,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1"/>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
       <c r="B115" s="1">
         <v>2013</v>
       </c>
@@ -1479,8 +1528,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1"/>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
       <c r="B116" s="1">
         <v>2014</v>
       </c>
@@ -1488,8 +1537,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
       <c r="B117" s="1">
         <v>2015</v>
       </c>
@@ -1497,8 +1546,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1"/>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
       <c r="B118" s="1">
         <v>2016</v>
       </c>
@@ -1506,8 +1555,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1"/>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
       <c r="B119" s="1">
         <v>2017</v>
       </c>
@@ -1515,8 +1564,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1"/>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
       <c r="B120" s="1">
         <v>2018</v>
       </c>
@@ -1524,8 +1573,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1"/>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
       <c r="B121" s="1">
         <v>2019</v>
       </c>
@@ -1533,291 +1582,291 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>8</v>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B122" s="1">
         <v>1990</v>
       </c>
       <c r="C122">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
       <c r="B123" s="1">
         <v>1991</v>
       </c>
       <c r="C123">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
       <c r="B124" s="1">
         <v>1992</v>
       </c>
       <c r="C124">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
       <c r="B125" s="1">
         <v>1993</v>
       </c>
       <c r="C125">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
       <c r="B126" s="1">
         <v>1994</v>
       </c>
       <c r="C126">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
       <c r="B127" s="1">
         <v>1995</v>
       </c>
       <c r="C127">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
       <c r="B128" s="1">
         <v>1996</v>
       </c>
       <c r="C128">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
       <c r="B129" s="1">
         <v>1997</v>
       </c>
       <c r="C129">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
       <c r="B130" s="1">
         <v>1998</v>
       </c>
       <c r="C130">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
       <c r="B131" s="1">
         <v>1999</v>
       </c>
       <c r="C131">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
       <c r="B132" s="1">
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
       <c r="B133" s="1">
         <v>2001</v>
       </c>
       <c r="C133">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
       <c r="B134" s="1">
         <v>2002</v>
       </c>
       <c r="C134">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
       <c r="B135" s="1">
         <v>2003</v>
       </c>
       <c r="C135">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
       <c r="B136" s="1">
         <v>2004</v>
       </c>
       <c r="C136">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
       <c r="B137" s="1">
         <v>2005</v>
       </c>
       <c r="C137">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
       <c r="B138" s="1">
         <v>2006</v>
       </c>
       <c r="C138">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
       <c r="B139" s="1">
         <v>2007</v>
       </c>
       <c r="C139">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
       <c r="B140" s="1">
         <v>2008</v>
       </c>
       <c r="C140">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
       <c r="B141" s="1">
         <v>2009</v>
       </c>
       <c r="C141">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
       <c r="B142" s="1">
         <v>2010</v>
       </c>
       <c r="C142">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
       <c r="B143" s="1">
         <v>2011</v>
       </c>
       <c r="C143">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
       <c r="B144" s="1">
         <v>2012</v>
       </c>
       <c r="C144">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
       <c r="B145" s="1">
         <v>2013</v>
       </c>
       <c r="C145">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
       <c r="B146" s="1">
         <v>2014</v>
       </c>
       <c r="C146">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
       <c r="B147" s="1">
         <v>2015</v>
       </c>
       <c r="C147">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
       <c r="B148" s="1">
         <v>2016</v>
       </c>
       <c r="C148">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
       <c r="B149" s="1">
         <v>2017</v>
       </c>
       <c r="C149">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
       <c r="B150" s="1">
         <v>2018</v>
       </c>
       <c r="C150">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
       <c r="B151" s="1">
         <v>2019</v>
       </c>
       <c r="C151">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>9</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B152" s="1">
         <v>1990</v>
       </c>
       <c r="C152">
-        <v>3.693</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1"/>
+        <v>3.6930000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
       <c r="B153" s="1">
         <v>1991</v>
       </c>
@@ -1825,26 +1874,26 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1"/>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
       <c r="B154" s="1">
         <v>1992</v>
       </c>
       <c r="C154">
-        <v>3.755</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1"/>
+        <v>3.7549999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
       <c r="B155" s="1">
         <v>1993</v>
       </c>
       <c r="C155">
-        <v>3.689</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1"/>
+        <v>3.6890000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
       <c r="B156" s="1">
         <v>1994</v>
       </c>
@@ -1852,35 +1901,35 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1"/>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
       <c r="B157" s="1">
         <v>1995</v>
       </c>
       <c r="C157">
-        <v>3.685</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1"/>
+        <v>3.6850000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
       <c r="B158" s="1">
         <v>1996</v>
       </c>
       <c r="C158">
-        <v>3.728</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1"/>
+        <v>3.7280000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
       <c r="B159" s="1">
         <v>1997</v>
       </c>
       <c r="C159">
-        <v>3.715</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1"/>
+        <v>3.7149999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
       <c r="B160" s="1">
         <v>1998</v>
       </c>
@@ -1888,8 +1937,8 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1"/>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
       <c r="B161" s="1">
         <v>1999</v>
       </c>
@@ -1897,8 +1946,8 @@
         <v>3.843</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1"/>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
       <c r="B162" s="1">
         <v>2000</v>
       </c>
@@ -1906,17 +1955,17 @@
         <v>3.931</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1"/>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
       <c r="B163" s="1">
         <v>2001</v>
       </c>
       <c r="C163">
-        <v>4.034</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1"/>
+        <v>4.0339999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
       <c r="B164" s="1">
         <v>2002</v>
       </c>
@@ -1924,62 +1973,62 @@
         <v>4.056</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1"/>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
       <c r="B165" s="1">
         <v>2003</v>
       </c>
       <c r="C165">
-        <v>4.139</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1"/>
+        <v>4.1390000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
       <c r="B166" s="1">
         <v>2004</v>
       </c>
       <c r="C166">
-        <v>4.216</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1"/>
+        <v>4.2160000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
       <c r="B167" s="1">
         <v>2005</v>
       </c>
       <c r="C167">
-        <v>4.307</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1"/>
+        <v>4.3070000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
       <c r="B168" s="1">
         <v>2006</v>
       </c>
       <c r="C168">
-        <v>4.342</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1"/>
+        <v>4.3419999999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2"/>
       <c r="B169" s="1">
         <v>2007</v>
       </c>
       <c r="C169">
-        <v>4.318</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
+        <v>4.3179999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
       <c r="B170" s="1">
         <v>2008</v>
       </c>
       <c r="C170">
-        <v>4.418</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1"/>
+        <v>4.4180000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
       <c r="B171" s="1">
         <v>2009</v>
       </c>
@@ -1987,53 +2036,53 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1"/>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
       <c r="B172" s="1">
         <v>2010</v>
       </c>
       <c r="C172">
-        <v>4.493</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1"/>
+        <v>4.4930000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
       <c r="B173" s="1">
         <v>2011</v>
       </c>
       <c r="C173">
-        <v>4.403</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1"/>
+        <v>4.4029999999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
       <c r="B174" s="1">
         <v>2012</v>
       </c>
       <c r="C174">
-        <v>4.435</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1"/>
+        <v>4.4349999999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
       <c r="B175" s="1">
         <v>2013</v>
       </c>
       <c r="C175">
-        <v>4.461</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1"/>
+        <v>4.4610000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
       <c r="B176" s="1">
         <v>2014</v>
       </c>
       <c r="C176">
-        <v>4.321</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1"/>
+        <v>4.3209999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
       <c r="B177" s="1">
         <v>2015</v>
       </c>
@@ -2041,118 +2090,118 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1"/>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
       <c r="B178" s="1">
         <v>2016</v>
       </c>
       <c r="C178">
-        <v>4.378</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1"/>
+        <v>4.3780000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
       <c r="B179" s="1">
         <v>2017</v>
       </c>
       <c r="C179">
-        <v>4.394</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1"/>
+        <v>4.3940000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
       <c r="B180" s="1">
         <v>2018</v>
       </c>
       <c r="C180">
-        <v>4.337</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1"/>
+        <v>4.3369999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
       <c r="B181" s="1">
         <v>2019</v>
       </c>
       <c r="C181">
-        <v>4.303</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1" t="s">
-        <v>10</v>
+        <v>4.3029999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B182" s="1">
         <v>1990</v>
       </c>
       <c r="C182">
-        <v>51.966</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1"/>
+        <v>51.966000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2"/>
       <c r="B183" s="1">
         <v>1991</v>
       </c>
       <c r="C183">
-        <v>53.282</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1"/>
+        <v>53.281999999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
       <c r="B184" s="1">
         <v>1992</v>
       </c>
       <c r="C184">
-        <v>53.059</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1"/>
+        <v>53.058999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2"/>
       <c r="B185" s="1">
         <v>1993</v>
       </c>
       <c r="C185">
-        <v>52.114</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1"/>
+        <v>52.113999999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
       <c r="B186" s="1">
         <v>1994</v>
       </c>
       <c r="C186">
-        <v>51.818</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1"/>
+        <v>51.817999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2"/>
       <c r="B187" s="1">
         <v>1995</v>
       </c>
       <c r="C187">
-        <v>53.087</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1"/>
+        <v>53.087000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
       <c r="B188" s="1">
         <v>1996</v>
       </c>
       <c r="C188">
-        <v>54.174</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1"/>
+        <v>54.173999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2"/>
       <c r="B189" s="1">
         <v>1997</v>
       </c>
       <c r="C189">
-        <v>53.846</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1"/>
+        <v>53.845999999999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2"/>
       <c r="B190" s="1">
         <v>1998</v>
       </c>
@@ -2160,26 +2209,26 @@
         <v>54.994</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1"/>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2"/>
       <c r="B191" s="1">
         <v>1999</v>
       </c>
       <c r="C191">
-        <v>56.464</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1"/>
+        <v>56.463999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2"/>
       <c r="B192" s="1">
         <v>2000</v>
       </c>
       <c r="C192">
-        <v>58.278</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1"/>
+        <v>58.277999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
       <c r="B193" s="1">
         <v>2001</v>
       </c>
@@ -2187,8 +2236,8 @@
         <v>59.73</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1"/>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
       <c r="B194" s="1">
         <v>2002</v>
       </c>
@@ -2196,17 +2245,17 @@
         <v>60.503</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1"/>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2"/>
       <c r="B195" s="1">
         <v>2003</v>
       </c>
       <c r="C195">
-        <v>62.154</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1"/>
+        <v>62.154000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2"/>
       <c r="B196" s="1">
         <v>2004</v>
       </c>
@@ -2214,134 +2263,134 @@
         <v>62.82</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1"/>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
       <c r="B197" s="1">
         <v>2005</v>
       </c>
       <c r="C197">
-        <v>64.268</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1"/>
+        <v>64.268000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
       <c r="B198" s="1">
         <v>2006</v>
       </c>
       <c r="C198">
-        <v>64.84399999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1"/>
+        <v>64.843999999999994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
       <c r="B199" s="1">
         <v>2007</v>
       </c>
       <c r="C199">
-        <v>63.854</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1"/>
+        <v>63.853999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2"/>
       <c r="B200" s="1">
         <v>2008</v>
       </c>
       <c r="C200">
-        <v>65.83199999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1"/>
+        <v>65.831999999999994</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
       <c r="B201" s="1">
         <v>2009</v>
       </c>
       <c r="C201">
-        <v>64.337</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1"/>
+        <v>64.337000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
       <c r="B202" s="1">
         <v>2010</v>
       </c>
       <c r="C202">
-        <v>66.77200000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1"/>
+        <v>66.772000000000006</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
       <c r="B203" s="1">
         <v>2011</v>
       </c>
       <c r="C203">
-        <v>65.468</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1"/>
+        <v>65.468000000000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
       <c r="B204" s="1">
         <v>2012</v>
       </c>
       <c r="C204">
-        <v>65.819</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1"/>
+        <v>65.819000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2"/>
       <c r="B205" s="1">
         <v>2013</v>
       </c>
       <c r="C205">
-        <v>65.916</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1"/>
+        <v>65.915999999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
       <c r="B206" s="1">
         <v>2014</v>
       </c>
       <c r="C206">
-        <v>64.142</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1"/>
+        <v>64.141999999999996</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2"/>
       <c r="B207" s="1">
         <v>2015</v>
       </c>
       <c r="C207">
-        <v>64.922</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1"/>
+        <v>64.921999999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2"/>
       <c r="B208" s="1">
         <v>2016</v>
       </c>
       <c r="C208">
-        <v>65.539</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1"/>
+        <v>65.539000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
       <c r="B209" s="1">
         <v>2017</v>
       </c>
       <c r="C209">
-        <v>67.03700000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1"/>
+        <v>67.037000000000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
       <c r="B210" s="1">
         <v>2018</v>
       </c>
       <c r="C210">
-        <v>65.971</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1"/>
+        <v>65.971000000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
       <c r="B211" s="1">
         <v>2019</v>
       </c>
@@ -2349,9 +2398,9 @@
         <v>65.634</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1" t="s">
-        <v>11</v>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B212" s="1">
         <v>1990</v>
@@ -2360,8 +2409,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1"/>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
       <c r="B213" s="1">
         <v>1991</v>
       </c>
@@ -2369,8 +2418,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1"/>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
       <c r="B214" s="1">
         <v>1992</v>
       </c>
@@ -2378,8 +2427,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1"/>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
       <c r="B215" s="1">
         <v>1993</v>
       </c>
@@ -2387,8 +2436,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1"/>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
       <c r="B216" s="1">
         <v>1994</v>
       </c>
@@ -2396,8 +2445,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1"/>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
       <c r="B217" s="1">
         <v>1995</v>
       </c>
@@ -2405,8 +2454,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1"/>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
       <c r="B218" s="1">
         <v>1996</v>
       </c>
@@ -2414,8 +2463,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1"/>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
       <c r="B219" s="1">
         <v>1997</v>
       </c>
@@ -2423,8 +2472,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1"/>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
       <c r="B220" s="1">
         <v>1998</v>
       </c>
@@ -2432,8 +2481,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1"/>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
       <c r="B221" s="1">
         <v>1999</v>
       </c>
@@ -2441,8 +2490,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1"/>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
       <c r="B222" s="1">
         <v>2000</v>
       </c>
@@ -2450,8 +2499,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1"/>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2"/>
       <c r="B223" s="1">
         <v>2001</v>
       </c>
@@ -2459,8 +2508,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1"/>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
       <c r="B224" s="1">
         <v>2002</v>
       </c>
@@ -2468,8 +2517,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1"/>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
       <c r="B225" s="1">
         <v>2003</v>
       </c>
@@ -2477,8 +2526,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1"/>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
       <c r="B226" s="1">
         <v>2004</v>
       </c>
@@ -2486,8 +2535,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1"/>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2"/>
       <c r="B227" s="1">
         <v>2005</v>
       </c>
@@ -2495,8 +2544,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1"/>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2"/>
       <c r="B228" s="1">
         <v>2006</v>
       </c>
@@ -2504,8 +2553,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1"/>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
       <c r="B229" s="1">
         <v>2007</v>
       </c>
@@ -2513,8 +2562,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1"/>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
       <c r="B230" s="1">
         <v>2008</v>
       </c>
@@ -2522,8 +2571,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1"/>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
       <c r="B231" s="1">
         <v>2009</v>
       </c>
@@ -2531,8 +2580,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1"/>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="2"/>
       <c r="B232" s="1">
         <v>2010</v>
       </c>
@@ -2540,8 +2589,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1"/>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
       <c r="B233" s="1">
         <v>2011</v>
       </c>
@@ -2549,8 +2598,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1"/>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
       <c r="B234" s="1">
         <v>2012</v>
       </c>
@@ -2558,8 +2607,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1"/>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="2"/>
       <c r="B235" s="1">
         <v>2013</v>
       </c>
@@ -2567,8 +2616,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1"/>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2"/>
       <c r="B236" s="1">
         <v>2014</v>
       </c>
@@ -2576,8 +2625,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1"/>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
       <c r="B237" s="1">
         <v>2015</v>
       </c>
@@ -2585,8 +2634,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1"/>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
       <c r="B238" s="1">
         <v>2016</v>
       </c>
@@ -2594,8 +2643,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1"/>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2"/>
       <c r="B239" s="1">
         <v>2017</v>
       </c>
@@ -2603,8 +2652,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1"/>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="2"/>
       <c r="B240" s="1">
         <v>2018</v>
       </c>
@@ -2612,8 +2661,8 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1"/>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="2"/>
       <c r="B241" s="1">
         <v>2019</v>
       </c>
@@ -2621,345 +2670,345 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1" t="s">
-        <v>12</v>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B242" s="1">
         <v>1990</v>
       </c>
       <c r="C242">
-        <v>0.006939511</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1"/>
+        <v>6.9395109999999998E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="2"/>
       <c r="B243" s="1">
         <v>1991</v>
       </c>
       <c r="C243">
-        <v>0.006997941</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1"/>
+        <v>6.9979409999999997E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="2"/>
       <c r="B244" s="1">
         <v>1992</v>
       </c>
       <c r="C244">
-        <v>0.006962327</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1"/>
+        <v>6.9623269999999999E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="2"/>
       <c r="B245" s="1">
         <v>1993</v>
       </c>
       <c r="C245">
-        <v>0.006808735</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1"/>
+        <v>6.8087349999999998E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="2"/>
       <c r="B246" s="1">
         <v>1994</v>
       </c>
       <c r="C246">
-        <v>0.006705319</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1"/>
+        <v>6.7053190000000004E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="2"/>
       <c r="B247" s="1">
         <v>1995</v>
       </c>
       <c r="C247">
-        <v>0.006800454</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1"/>
+        <v>6.800454E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="2"/>
       <c r="B248" s="1">
         <v>1996</v>
       </c>
       <c r="C248">
-        <v>0.006885181</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="1"/>
+        <v>6.8851809999999998E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="2"/>
       <c r="B249" s="1">
         <v>1997</v>
       </c>
       <c r="C249">
-        <v>0.006857385</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="1"/>
+        <v>6.8573849999999997E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="2"/>
       <c r="B250" s="1">
         <v>1998</v>
       </c>
       <c r="C250">
-        <v>0.006978903</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1"/>
+        <v>6.9789029999999998E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="2"/>
       <c r="B251" s="1">
         <v>1999</v>
       </c>
       <c r="C251">
-        <v>0.007168673</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="1"/>
+        <v>7.1686730000000004E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="2"/>
       <c r="B252" s="1">
         <v>2000</v>
       </c>
       <c r="C252">
-        <v>0.007290228</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="1"/>
+        <v>7.2902280000000002E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="2"/>
       <c r="B253" s="1">
         <v>2001</v>
       </c>
       <c r="C253">
-        <v>0.007437249</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="1"/>
+        <v>7.4372489999999999E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="2"/>
       <c r="B254" s="1">
         <v>2002</v>
       </c>
       <c r="C254">
-        <v>0.007416472</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="1"/>
+        <v>7.4164720000000003E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="2"/>
       <c r="B255" s="1">
         <v>2003</v>
       </c>
       <c r="C255">
-        <v>0.007510833</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="1"/>
+        <v>7.5108329999999997E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="2"/>
       <c r="B256" s="1">
         <v>2004</v>
       </c>
       <c r="C256">
-        <v>0.007600947</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="1"/>
+        <v>7.6009470000000003E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="2"/>
       <c r="B257" s="1">
         <v>2005</v>
       </c>
       <c r="C257">
-        <v>0.007708754</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="1"/>
+        <v>7.708754E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="2"/>
       <c r="B258" s="1">
         <v>2006</v>
       </c>
       <c r="C258">
-        <v>0.007720738</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="1"/>
+        <v>7.7207380000000004E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="2"/>
       <c r="B259" s="1">
         <v>2007</v>
       </c>
       <c r="C259">
-        <v>0.00760588</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="1"/>
+        <v>7.6058799999999998E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="2"/>
       <c r="B260" s="1">
         <v>2008</v>
       </c>
       <c r="C260">
-        <v>0.007679001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="1"/>
+        <v>7.6790010000000004E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="2"/>
       <c r="B261" s="1">
         <v>2009</v>
       </c>
       <c r="C261">
-        <v>0.007424329</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="1"/>
+        <v>7.4243290000000003E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="2"/>
       <c r="B262" s="1">
         <v>2010</v>
       </c>
       <c r="C262">
-        <v>0.007640256</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="1"/>
+        <v>7.6402559999999998E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="2"/>
       <c r="B263" s="1">
         <v>2011</v>
       </c>
       <c r="C263">
-        <v>0.007406345</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="1"/>
+        <v>7.4063449999999999E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="2"/>
       <c r="B264" s="1">
         <v>2012</v>
       </c>
       <c r="C264">
-        <v>0.00737439</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="1"/>
+        <v>7.3743899999999998E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="2"/>
       <c r="B265" s="1">
         <v>2013</v>
       </c>
       <c r="C265">
-        <v>0.007333787</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="1"/>
+        <v>7.3337869999999996E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="2"/>
       <c r="B266" s="1">
         <v>2014</v>
       </c>
       <c r="C266">
-        <v>0.007017462</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="1"/>
+        <v>7.0174620000000004E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2"/>
       <c r="B267" s="1">
         <v>2015</v>
       </c>
       <c r="C267">
-        <v>0.007032842</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1"/>
+        <v>7.0328420000000001E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2"/>
       <c r="B268" s="1">
         <v>2016</v>
       </c>
       <c r="C268">
-        <v>0.006955571</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="1"/>
+        <v>6.9555709999999998E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="2"/>
       <c r="B269" s="1">
         <v>2017</v>
       </c>
       <c r="C269">
-        <v>0.006919427</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="1"/>
+        <v>6.9194269999999997E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="2"/>
       <c r="B270" s="1">
         <v>2018</v>
       </c>
       <c r="C270">
-        <v>0.006770848</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="1"/>
+        <v>6.7708480000000003E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="2"/>
       <c r="B271" s="1">
         <v>2019</v>
       </c>
       <c r="C271">
-        <v>0.006670321</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="1" t="s">
-        <v>13</v>
+        <v>6.6703209999999999E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B272" s="1">
         <v>1990</v>
       </c>
       <c r="C272">
-        <v>72.86388123412948</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="1"/>
+        <v>72.863881234129479</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2"/>
       <c r="B273" s="1">
         <v>1991</v>
       </c>
       <c r="C273">
-        <v>69.43937757722126</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="1"/>
+        <v>69.439377577221265</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="2"/>
       <c r="B274" s="1">
         <v>1992</v>
       </c>
       <c r="C274">
-        <v>72.45813849332114</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="1"/>
+        <v>72.458138493321144</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="2"/>
       <c r="B275" s="1">
         <v>1993</v>
       </c>
       <c r="C275">
-        <v>65.56873105747404</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="1"/>
+        <v>65.568731057474039</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2"/>
       <c r="B276" s="1">
         <v>1994</v>
       </c>
       <c r="C276">
-        <v>60.0450749296306</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="1"/>
+        <v>60.045074929630601</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2"/>
       <c r="B277" s="1">
         <v>1995</v>
       </c>
       <c r="C277">
-        <v>54.62144893441943</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="1"/>
+        <v>54.621448934419433</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2"/>
       <c r="B278" s="1">
         <v>1996</v>
       </c>
       <c r="C278">
-        <v>52.81441389431772</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="1"/>
+        <v>52.814413894317717</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2"/>
       <c r="B279" s="1">
         <v>1997</v>
       </c>
@@ -2967,71 +3016,71 @@
         <v>54.84535449046038</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="1"/>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2"/>
       <c r="B280" s="1">
         <v>1998</v>
       </c>
       <c r="C280">
-        <v>52.99350738341913</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="1"/>
+        <v>52.993507383419129</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="2"/>
       <c r="B281" s="1">
         <v>1999</v>
       </c>
       <c r="C281">
-        <v>50.05268943647022</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="1"/>
+        <v>50.052689436470217</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="2"/>
       <c r="B282" s="1">
         <v>2000</v>
       </c>
       <c r="C282">
-        <v>47.2802716858862</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="1"/>
+        <v>47.280271685886198</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2"/>
       <c r="B283" s="1">
         <v>2001</v>
       </c>
       <c r="C283">
-        <v>46.75048581490232</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="1"/>
+        <v>46.750485814902319</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="2"/>
       <c r="B284" s="1">
         <v>2002</v>
       </c>
       <c r="C284">
-        <v>44.00238179902357</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="1"/>
+        <v>44.002381799023567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="2"/>
       <c r="B285" s="1">
         <v>2003</v>
       </c>
       <c r="C285">
-        <v>46.97812854717326</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="1"/>
+        <v>46.978128547173263</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="2"/>
       <c r="B286" s="1">
         <v>2004</v>
       </c>
       <c r="C286">
-        <v>46.52779115483253</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="1"/>
+        <v>46.527791154832528</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2"/>
       <c r="B287" s="1">
         <v>2005</v>
       </c>
@@ -3039,35 +3088,35 @@
         <v>49.66207090612555</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="1"/>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="2"/>
       <c r="B288" s="1">
         <v>2006</v>
       </c>
       <c r="C288">
-        <v>55.48906620203645</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="1"/>
+        <v>55.489066202036447</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="2"/>
       <c r="B289" s="1">
         <v>2007</v>
       </c>
       <c r="C289">
-        <v>61.8855466751634</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="1"/>
+        <v>61.885546675163397</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="2"/>
       <c r="B290" s="1">
         <v>2008</v>
       </c>
       <c r="C290">
-        <v>52.35632530353237</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="1"/>
+        <v>52.356325303532373</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="2"/>
       <c r="B291" s="1">
         <v>2009</v>
       </c>
@@ -3075,109 +3124,109 @@
         <v>52.95545400748199</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="1"/>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="2"/>
       <c r="B292" s="1">
         <v>2010</v>
       </c>
       <c r="C292">
-        <v>46.80232527541708</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="1"/>
+        <v>46.802325275417083</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="2"/>
       <c r="B293" s="1">
         <v>2011</v>
       </c>
       <c r="C293">
-        <v>44.08822601233226</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="1"/>
+        <v>44.088226012332257</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="2"/>
       <c r="B294" s="1">
         <v>2012</v>
       </c>
       <c r="C294">
-        <v>44.8237076317776</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="1"/>
+        <v>44.823707631777602</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="2"/>
       <c r="B295" s="1">
         <v>2013</v>
       </c>
       <c r="C295">
-        <v>44.02533792901104</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="1"/>
+        <v>44.025337929011037</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="2"/>
       <c r="B296" s="1">
         <v>2014</v>
       </c>
       <c r="C296">
-        <v>41.57804075271046</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="1"/>
+        <v>41.578040752710457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="2"/>
       <c r="B297" s="1">
         <v>2015</v>
       </c>
       <c r="C297">
-        <v>35.29476452060889</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="1"/>
+        <v>35.294764520608886</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="2"/>
       <c r="B298" s="1">
         <v>2016</v>
       </c>
       <c r="C298">
-        <v>33.91144191954972</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="1"/>
+        <v>33.911441919549723</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="2"/>
       <c r="B299" s="1">
         <v>2017</v>
       </c>
       <c r="C299">
-        <v>33.30667335839851</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="1"/>
+        <v>33.306673358398513</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="2"/>
       <c r="B300" s="1">
         <v>2018</v>
       </c>
       <c r="C300">
-        <v>34.90791186982651</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="1"/>
+        <v>34.907911869826513</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="2"/>
       <c r="B301" s="1">
         <v>2019</v>
       </c>
       <c r="C301">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="1" t="s">
-        <v>14</v>
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B302" s="1">
         <v>1990</v>
       </c>
       <c r="C302">
-        <v>68865.46484</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="1"/>
+        <v>68865.464840000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="2"/>
       <c r="B303" s="1">
         <v>1991</v>
       </c>
@@ -3185,26 +3234,26 @@
         <v>67351.61765</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="1"/>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="2"/>
       <c r="B304" s="1">
         <v>1992</v>
       </c>
       <c r="C304">
-        <v>66587.78182</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="1"/>
+        <v>66587.781820000004</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="2"/>
       <c r="B305" s="1">
         <v>1993</v>
       </c>
       <c r="C305">
-        <v>65899.97117</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="1"/>
+        <v>65899.971170000004</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="2"/>
       <c r="B306" s="1">
         <v>1994</v>
       </c>
@@ -3212,179 +3261,179 @@
         <v>66202.45925</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="1"/>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="2"/>
       <c r="B307" s="1">
         <v>1995</v>
       </c>
       <c r="C307">
-        <v>66076.69365</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="1"/>
+        <v>66076.693650000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="2"/>
       <c r="B308" s="1">
         <v>1996</v>
       </c>
       <c r="C308">
-        <v>66111.99095000001</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="1"/>
+        <v>66111.990950000007</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="2"/>
       <c r="B309" s="1">
         <v>1997</v>
       </c>
       <c r="C309">
-        <v>67450.13400999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="1"/>
+        <v>67450.134009999994</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="2"/>
       <c r="B310" s="1">
         <v>1998</v>
       </c>
       <c r="C310">
-        <v>69312.37693</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="1"/>
+        <v>69312.376929999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="2"/>
       <c r="B311" s="1">
         <v>1999</v>
       </c>
       <c r="C311">
-        <v>70186.59015</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="1"/>
+        <v>70186.590150000004</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="2"/>
       <c r="B312" s="1">
         <v>2000</v>
       </c>
       <c r="C312">
-        <v>72571.13029</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="1"/>
+        <v>72571.130290000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="2"/>
       <c r="B313" s="1">
         <v>2001</v>
       </c>
       <c r="C313">
-        <v>73276.18652</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="1"/>
+        <v>73276.186520000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="2"/>
       <c r="B314" s="1">
         <v>2002</v>
       </c>
       <c r="C314">
-        <v>72688.67535999999</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="1"/>
+        <v>72688.675359999994</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="2"/>
       <c r="B315" s="1">
         <v>2003</v>
       </c>
       <c r="C315">
-        <v>72120.0436</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="1"/>
+        <v>72120.043600000005</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="2"/>
       <c r="B316" s="1">
         <v>2004</v>
       </c>
       <c r="C316">
-        <v>73643.16644</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="1"/>
+        <v>73643.166440000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="2"/>
       <c r="B317" s="1">
         <v>2005</v>
       </c>
       <c r="C317">
-        <v>75287.21259</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="1"/>
+        <v>75287.212589999996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="2"/>
       <c r="B318" s="1">
         <v>2006</v>
       </c>
       <c r="C318">
-        <v>77818.27899999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="1"/>
+        <v>77818.278999999995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="2"/>
       <c r="B319" s="1">
         <v>2007</v>
       </c>
       <c r="C319">
-        <v>80209.64111</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="1"/>
+        <v>80209.641109999997</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="2"/>
       <c r="B320" s="1">
         <v>2008</v>
       </c>
       <c r="C320">
-        <v>81374.47699</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="1"/>
+        <v>81374.476989999996</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="2"/>
       <c r="B321" s="1">
         <v>2009</v>
       </c>
       <c r="C321">
-        <v>78694.34401</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="1"/>
+        <v>78694.344010000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="2"/>
       <c r="B322" s="1">
         <v>2010</v>
       </c>
       <c r="C322">
-        <v>80424.92013</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="1"/>
+        <v>80424.920129999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="2"/>
       <c r="B323" s="1">
         <v>2011</v>
       </c>
       <c r="C323">
-        <v>81068.12437000001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="1"/>
+        <v>81068.124370000005</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="2"/>
       <c r="B324" s="1">
         <v>2012</v>
       </c>
       <c r="C324">
-        <v>81182.69351</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="1"/>
+        <v>81182.693509999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="2"/>
       <c r="B325" s="1">
         <v>2013</v>
       </c>
       <c r="C325">
-        <v>81721.47361</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="1"/>
+        <v>81721.473610000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="2"/>
       <c r="B326" s="1">
         <v>2014</v>
       </c>
@@ -3392,91 +3441,91 @@
         <v>82698.74222</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="1"/>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="2"/>
       <c r="B327" s="1">
         <v>2015</v>
       </c>
       <c r="C327">
-        <v>83125.57352999999</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="1"/>
+        <v>83125.573529999994</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="2"/>
       <c r="B328" s="1">
         <v>2016</v>
       </c>
       <c r="C328">
-        <v>83903.73821</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="1"/>
+        <v>83903.738209999996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="2"/>
       <c r="B329" s="1">
         <v>2017</v>
       </c>
       <c r="C329">
-        <v>84436.81969</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="1"/>
+        <v>84436.819690000004</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="2"/>
       <c r="B330" s="1">
         <v>2018</v>
       </c>
       <c r="C330">
-        <v>86347.89758</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="1"/>
+        <v>86347.897580000004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="2"/>
       <c r="B331" s="1">
         <v>2019</v>
       </c>
       <c r="C331">
-        <v>86661.22448999999</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1" t="s">
-        <v>15</v>
+        <v>86661.224489999993</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B332" s="1">
         <v>1990</v>
       </c>
       <c r="C332">
-        <v>33.72025824166965</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="1"/>
+        <v>33.720258241669647</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="2"/>
       <c r="B333" s="1">
         <v>1991</v>
       </c>
       <c r="C333">
-        <v>30.67703669494624</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="1"/>
+        <v>30.677036694946239</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="2"/>
       <c r="B334" s="1">
         <v>1992</v>
       </c>
       <c r="C334">
-        <v>30.98457590593429</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="1"/>
+        <v>30.984575905934289</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="2"/>
       <c r="B335" s="1">
         <v>1993</v>
       </c>
       <c r="C335">
-        <v>27.61490055123148</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="1"/>
+        <v>27.614900551231479</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="2"/>
       <c r="B336" s="1">
         <v>1994</v>
       </c>
@@ -3484,71 +3533,71 @@
         <v>25.95782290306439</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="1"/>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="2"/>
       <c r="B337" s="1">
         <v>1995</v>
       </c>
       <c r="C337">
-        <v>24.46150729850226</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="1"/>
+        <v>24.461507298502259</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="2"/>
       <c r="B338" s="1">
         <v>1996</v>
       </c>
       <c r="C338">
-        <v>26.59012884691514</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="1"/>
+        <v>26.590128846915139</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="2"/>
       <c r="B339" s="1">
         <v>1997</v>
       </c>
       <c r="C339">
-        <v>27.06972963787129</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="1"/>
+        <v>27.069729637871291</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="2"/>
       <c r="B340" s="1">
         <v>1998</v>
       </c>
       <c r="C340">
-        <v>27.99134895107442</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="1"/>
+        <v>27.991348951074421</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="2"/>
       <c r="B341" s="1">
         <v>1999</v>
       </c>
       <c r="C341">
-        <v>32.50917654015173</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="1"/>
+        <v>32.509176540151728</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="2"/>
       <c r="B342" s="1">
         <v>2000</v>
       </c>
       <c r="C342">
-        <v>32.58317314340088</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="1"/>
+        <v>32.583173143400877</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="2"/>
       <c r="B343" s="1">
         <v>2001</v>
       </c>
       <c r="C343">
-        <v>35.10842234621985</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="1"/>
+        <v>35.108422346219847</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="2"/>
       <c r="B344" s="1">
         <v>2002</v>
       </c>
@@ -3556,17 +3605,17 @@
         <v>34.80792228447401</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="1"/>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="2"/>
       <c r="B345" s="1">
         <v>2003</v>
       </c>
       <c r="C345">
-        <v>36.12389556438498</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="1"/>
+        <v>36.123895564384981</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="2"/>
       <c r="B346" s="1">
         <v>2004</v>
       </c>
@@ -3574,71 +3623,71 @@
         <v>35.68365851151961</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="1"/>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="2"/>
       <c r="B347" s="1">
         <v>2005</v>
       </c>
       <c r="C347">
-        <v>38.42575358683873</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="1"/>
+        <v>38.425753586838731</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="2"/>
       <c r="B348" s="1">
         <v>2006</v>
       </c>
       <c r="C348">
-        <v>37.25244814185535</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="1"/>
+        <v>37.252448141855353</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="2"/>
       <c r="B349" s="1">
         <v>2007</v>
       </c>
       <c r="C349">
-        <v>39.91877878008597</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="1"/>
+        <v>39.918778780085972</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="2"/>
       <c r="B350" s="1">
         <v>2008</v>
       </c>
       <c r="C350">
-        <v>47.32965036337689</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="1"/>
+        <v>47.329650363376892</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="2"/>
       <c r="B351" s="1">
         <v>2009</v>
       </c>
       <c r="C351">
-        <v>43.89481587820253</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="1"/>
+        <v>43.894815878202529</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="2"/>
       <c r="B352" s="1">
         <v>2010</v>
       </c>
       <c r="C352">
-        <v>41.26425024943976</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="1"/>
+        <v>41.264250249439762</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="2"/>
       <c r="B353" s="1">
         <v>2011</v>
       </c>
       <c r="C353">
-        <v>43.62770745296754</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="1"/>
+        <v>43.627707452967542</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="2"/>
       <c r="B354" s="1">
         <v>2012</v>
       </c>
@@ -3646,62 +3695,62 @@
         <v>44.55079562676223</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="1"/>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="2"/>
       <c r="B355" s="1">
         <v>2013</v>
       </c>
       <c r="C355">
-        <v>44.31392242549851</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="1"/>
+        <v>44.313922425498511</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="2"/>
       <c r="B356" s="1">
         <v>2014</v>
       </c>
       <c r="C356">
-        <v>43.83843927486691</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="1"/>
+        <v>43.838439274866907</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="2"/>
       <c r="B357" s="1">
         <v>2015</v>
       </c>
       <c r="C357">
-        <v>44.04686822148835</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="1"/>
+        <v>44.046868221488353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="2"/>
       <c r="B358" s="1">
         <v>2016</v>
       </c>
       <c r="C358">
-        <v>44.38720642265533</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="1"/>
+        <v>44.387206422655332</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="2"/>
       <c r="B359" s="1">
         <v>2017</v>
       </c>
       <c r="C359">
-        <v>44.3418842552062</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="1"/>
+        <v>44.341884255206203</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="2"/>
       <c r="B360" s="1">
         <v>2018</v>
       </c>
       <c r="C360">
-        <v>46.33297264440704</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="1"/>
+        <v>46.332972644407043</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="2"/>
       <c r="B361" s="1">
         <v>2019</v>
       </c>
@@ -3709,46 +3758,46 @@
         <v>45.29067940584811</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="1" t="s">
-        <v>16</v>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B362" s="1">
         <v>1990</v>
       </c>
       <c r="C362">
-        <v>8.536</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="1"/>
+        <v>8.5359999999999996</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="2"/>
       <c r="B363" s="1">
         <v>1991</v>
       </c>
       <c r="C363">
-        <v>8.654999999999999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="1"/>
+        <v>8.6549999999999994</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="2"/>
       <c r="B364" s="1">
         <v>1992</v>
       </c>
       <c r="C364">
-        <v>8.478999999999999</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="1"/>
+        <v>8.4789999999999992</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="2"/>
       <c r="B365" s="1">
         <v>1993</v>
       </c>
       <c r="C365">
-        <v>8.563000000000001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="1"/>
+        <v>8.5630000000000006</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="2"/>
       <c r="B366" s="1">
         <v>1994</v>
       </c>
@@ -3756,17 +3805,17 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="1"/>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="2"/>
       <c r="B367" s="1">
         <v>1995</v>
       </c>
       <c r="C367">
-        <v>8.634</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="1"/>
+        <v>8.6340000000000003</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="2"/>
       <c r="B368" s="1">
         <v>1996</v>
       </c>
@@ -3774,8 +3823,8 @@
         <v>8.452</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
-      <c r="A369" s="1"/>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="2"/>
       <c r="B369" s="1">
         <v>1997</v>
       </c>
@@ -3783,35 +3832,35 @@
         <v>8.577</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1"/>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="2"/>
       <c r="B370" s="1">
         <v>1998</v>
       </c>
       <c r="C370">
-        <v>8.792999999999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="1"/>
+        <v>8.7929999999999993</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="2"/>
       <c r="B371" s="1">
         <v>1999</v>
       </c>
       <c r="C371">
-        <v>9.099</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372" s="1"/>
+        <v>9.0990000000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="2"/>
       <c r="B372" s="1">
         <v>2000</v>
       </c>
       <c r="C372">
-        <v>9.026999999999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="1"/>
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="2"/>
       <c r="B373" s="1">
         <v>2001</v>
       </c>
@@ -3819,53 +3868,53 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="1"/>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="2"/>
       <c r="B374" s="1">
         <v>2002</v>
       </c>
       <c r="C374">
-        <v>9.601000000000001</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="1"/>
+        <v>9.6010000000000009</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="2"/>
       <c r="B375" s="1">
         <v>2003</v>
       </c>
       <c r="C375">
-        <v>9.592000000000001</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" s="1"/>
+        <v>9.5920000000000005</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="2"/>
       <c r="B376" s="1">
         <v>2004</v>
       </c>
       <c r="C376">
-        <v>9.656000000000001</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377" s="1"/>
+        <v>9.6560000000000006</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="2"/>
       <c r="B377" s="1">
         <v>2005</v>
       </c>
       <c r="C377">
-        <v>9.782999999999999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="1"/>
+        <v>9.7829999999999995</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="2"/>
       <c r="B378" s="1">
         <v>2006</v>
       </c>
       <c r="C378">
-        <v>10.181</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="1"/>
+        <v>10.180999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="2"/>
       <c r="B379" s="1">
         <v>2007</v>
       </c>
@@ -3873,71 +3922,71 @@
         <v>10.045</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
-      <c r="A380" s="1"/>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="2"/>
       <c r="B380" s="1">
         <v>2008</v>
       </c>
       <c r="C380">
-        <v>9.938000000000001</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" s="1"/>
+        <v>9.9380000000000006</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="2"/>
       <c r="B381" s="1">
         <v>2009</v>
       </c>
       <c r="C381">
-        <v>10.249</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="1"/>
+        <v>10.249000000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="2"/>
       <c r="B382" s="1">
         <v>2010</v>
       </c>
       <c r="C382">
-        <v>10.749</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" s="1"/>
+        <v>10.749000000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="2"/>
       <c r="B383" s="1">
         <v>2011</v>
       </c>
       <c r="C383">
-        <v>10.072</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="1"/>
+        <v>10.071999999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="2"/>
       <c r="B384" s="1">
         <v>2012</v>
       </c>
       <c r="C384">
-        <v>10.688</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="1"/>
+        <v>10.688000000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="2"/>
       <c r="B385" s="1">
         <v>2013</v>
       </c>
       <c r="C385">
-        <v>10.296</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="1"/>
+        <v>10.295999999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="2"/>
       <c r="B386" s="1">
         <v>2014</v>
       </c>
       <c r="C386">
-        <v>9.997999999999999</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="1"/>
+        <v>9.9979999999999993</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="2"/>
       <c r="B387" s="1">
         <v>2015</v>
       </c>
@@ -3945,8 +3994,8 @@
         <v>10.423</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
-      <c r="A388" s="1"/>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="2"/>
       <c r="B388" s="1">
         <v>2016</v>
       </c>
@@ -3954,8 +4003,8 @@
         <v>10.39</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
-      <c r="A389" s="1"/>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="2"/>
       <c r="B389" s="1">
         <v>2017</v>
       </c>
@@ -3963,27 +4012,27 @@
         <v>10.935</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
-      <c r="A390" s="1"/>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="2"/>
       <c r="B390" s="1">
         <v>2018</v>
       </c>
       <c r="C390">
-        <v>10.249</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
-      <c r="A391" s="1"/>
+        <v>10.249000000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="2"/>
       <c r="B391" s="1">
         <v>2019</v>
       </c>
       <c r="C391">
-        <v>9.803000000000001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="A392" s="1" t="s">
-        <v>17</v>
+        <v>9.8030000000000008</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B392" s="1">
         <v>1990</v>
@@ -3992,8 +4041,8 @@
         <v>6712000</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
-      <c r="A393" s="1"/>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="2"/>
       <c r="B393" s="1">
         <v>1991</v>
       </c>
@@ -4001,8 +4050,8 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
-      <c r="A394" s="1"/>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="2"/>
       <c r="B394" s="1">
         <v>1992</v>
       </c>
@@ -4010,8 +4059,8 @@
         <v>6875000</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="A395" s="1"/>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="2"/>
       <c r="B395" s="1">
         <v>1993</v>
       </c>
@@ -4019,8 +4068,8 @@
         <v>6938000</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
-      <c r="A396" s="1"/>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="2"/>
       <c r="B396" s="1">
         <v>1994</v>
       </c>
@@ -4028,8 +4077,8 @@
         <v>6994000</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1"/>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="2"/>
       <c r="B397" s="1">
         <v>1995</v>
       </c>
@@ -4037,8 +4086,8 @@
         <v>7041000</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="1"/>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="2"/>
       <c r="B398" s="1">
         <v>1996</v>
       </c>
@@ -4046,8 +4095,8 @@
         <v>7072000</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
-      <c r="A399" s="1"/>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="2"/>
       <c r="B399" s="1">
         <v>1997</v>
       </c>
@@ -4055,8 +4104,8 @@
         <v>7089000</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
-      <c r="A400" s="1"/>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="2"/>
       <c r="B400" s="1">
         <v>1998</v>
       </c>
@@ -4064,8 +4113,8 @@
         <v>7110000</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="1"/>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="2"/>
       <c r="B401" s="1">
         <v>1999</v>
       </c>
@@ -4073,8 +4122,8 @@
         <v>7144000</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="1"/>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="2"/>
       <c r="B402" s="1">
         <v>2000</v>
       </c>
@@ -4082,8 +4131,8 @@
         <v>7184000</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="1"/>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="2"/>
       <c r="B403" s="1">
         <v>2001</v>
       </c>
@@ -4091,8 +4140,8 @@
         <v>7227000</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
-      <c r="A404" s="1"/>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="2"/>
       <c r="B404" s="1">
         <v>2002</v>
       </c>
@@ -4100,8 +4149,8 @@
         <v>7285000</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
-      <c r="A405" s="1"/>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="2"/>
       <c r="B405" s="1">
         <v>2003</v>
       </c>
@@ -4109,8 +4158,8 @@
         <v>7339000</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
-      <c r="A406" s="1"/>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="2"/>
       <c r="B406" s="1">
         <v>2004</v>
       </c>
@@ -4118,8 +4167,8 @@
         <v>7390000</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
-      <c r="A407" s="1"/>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="2"/>
       <c r="B407" s="1">
         <v>2005</v>
       </c>
@@ -4127,8 +4176,8 @@
         <v>7437000</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
-      <c r="A408" s="1"/>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="2"/>
       <c r="B408" s="1">
         <v>2006</v>
       </c>
@@ -4136,8 +4185,8 @@
         <v>7484000</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
-      <c r="A409" s="1"/>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="2"/>
       <c r="B409" s="1">
         <v>2007</v>
       </c>
@@ -4145,8 +4194,8 @@
         <v>7551000</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
-      <c r="A410" s="1"/>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="2"/>
       <c r="B410" s="1">
         <v>2008</v>
       </c>
@@ -4154,8 +4203,8 @@
         <v>7648000</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
-      <c r="A411" s="1"/>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="2"/>
       <c r="B411" s="1">
         <v>2009</v>
       </c>
@@ -4163,8 +4212,8 @@
         <v>7744000</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="1"/>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="2"/>
       <c r="B412" s="1">
         <v>2010</v>
       </c>
@@ -4172,8 +4221,8 @@
         <v>7825000</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
-      <c r="A413" s="1"/>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="2"/>
       <c r="B413" s="1">
         <v>2011</v>
       </c>
@@ -4181,8 +4230,8 @@
         <v>7912000</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="1"/>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="2"/>
       <c r="B414" s="1">
         <v>2012</v>
       </c>
@@ -4190,8 +4239,8 @@
         <v>7997000</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
-      <c r="A415" s="1"/>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="2"/>
       <c r="B415" s="1">
         <v>2013</v>
       </c>
@@ -4199,8 +4248,8 @@
         <v>8089000</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
-      <c r="A416" s="1"/>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="2"/>
       <c r="B416" s="1">
         <v>2014</v>
       </c>
@@ -4208,8 +4257,8 @@
         <v>8189000</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
-      <c r="A417" s="1"/>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="2"/>
       <c r="B417" s="1">
         <v>2015</v>
       </c>
@@ -4217,8 +4266,8 @@
         <v>8282000</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
-      <c r="A418" s="1"/>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="2"/>
       <c r="B418" s="1">
         <v>2016</v>
       </c>
@@ -4226,8 +4275,8 @@
         <v>8373000</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
-      <c r="A419" s="1"/>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="2"/>
       <c r="B419" s="1">
         <v>2017</v>
       </c>
@@ -4235,8 +4284,8 @@
         <v>8452000</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
-      <c r="A420" s="1"/>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="2"/>
       <c r="B420" s="1">
         <v>2018</v>
       </c>
@@ -4244,8 +4293,8 @@
         <v>8514000</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
-      <c r="A421" s="1"/>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="2"/>
       <c r="B421" s="1">
         <v>2019</v>
       </c>
@@ -4255,20 +4304,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A302:A331"/>
+    <mergeCell ref="A332:A361"/>
+    <mergeCell ref="A362:A391"/>
+    <mergeCell ref="A392:A421"/>
+    <mergeCell ref="A152:A181"/>
+    <mergeCell ref="A182:A211"/>
+    <mergeCell ref="A212:A241"/>
+    <mergeCell ref="A242:A271"/>
+    <mergeCell ref="A272:A301"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="A32:A61"/>
     <mergeCell ref="A62:A91"/>
     <mergeCell ref="A92:A121"/>
     <mergeCell ref="A122:A151"/>
-    <mergeCell ref="A152:A181"/>
-    <mergeCell ref="A182:A211"/>
-    <mergeCell ref="A212:A241"/>
-    <mergeCell ref="A242:A271"/>
-    <mergeCell ref="A272:A301"/>
-    <mergeCell ref="A302:A331"/>
-    <mergeCell ref="A332:A361"/>
-    <mergeCell ref="A362:A391"/>
-    <mergeCell ref="A392:A421"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
